--- a/biology/Médecine/Hémiplégie/Hémiplégie.xlsx
+++ b/biology/Médecine/Hémiplégie/Hémiplégie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mipl%C3%A9gie</t>
+          <t>Hémiplégie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hémiplégie est une paralysie d'une ou plusieurs parties du corps d'un seul côté (touchant un hémicorps). Elle peut être totale, et dans ce cas, le membre supérieur, le membre inférieur, le tronc et la moitié de la face sont touchés. 
 Les causes sont variables, les plus fréquentes sont :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mipl%C3%A9gie</t>
+          <t>Hémiplégie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Hémiplégie et récupération</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La récupération de la marche, des mouvements d'un bras, coude ou épaule, de la parole, de la compréhension dépendent pour beaucoup de l'âge du patient et de son atteinte au niveau du cerveau. En effet un enfant ayant de 3 à 12 ans pourra récupérer beaucoup plus de fonctionnalités qu'un enfant de plus de 12 ans. L'adulte aura encore plus de difficultés à ce niveau. Le facteur « malléabilité (plasticité cérébrale) du cerveau » joue ici un très grand rôle.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mipl%C3%A9gie</t>
+          <t>Hémiplégie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Problème de croissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un problème de croissance est présent chez les enfants dont la croissance n'est pas terminée. En effet, la partie atteinte ne grandira généralement pas à la même vitesse. L'étirement des os est une solution possible à l'amélioration de la marche pour la plupart des sujets. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9mipl%C3%A9gie</t>
+          <t>Hémiplégie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Problème oculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains problèmes sont très difficiles à détecter à cause du croisement des transmetteurs oculaires vers le cerveau. En effet, un contrôle chez l'opticien indiquera souvent 10/10 aux deux yeux. Un  contrôle chez l'orthoptiste démontrera une limite de la transmission visuelle des yeux au cerveau, une rééducation peut être envisagée selon chaque cas.
 </t>
